--- a/Tablas Excel.xlsx
+++ b/Tablas Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GitHub\HdT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41B35F0-EBED-4AA6-9B83-315A3D14086A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36589F32-5DD6-4773-93C8-897BEE1EB680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9C59008-3364-4DDB-A73D-8C782ECBBBE0}"/>
   </bookViews>
@@ -3545,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492E356A-C219-4376-8993-762436F63754}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Tablas Excel.xlsx
+++ b/Tablas Excel.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GitHub\HdT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36589F32-5DD6-4773-93C8-897BEE1EB680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279BC7A-A943-490F-9200-72D01E3CD2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9C59008-3364-4DDB-A73D-8C782ECBBBE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{A9C59008-3364-4DDB-A73D-8C782ECBBBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="1 CPU y 100 de RAM" sheetId="1" r:id="rId1"/>
+    <sheet name="1 CPU y 200 de RAM" sheetId="3" r:id="rId2"/>
+    <sheet name="1 CPU y 100 de RAM mas rapido" sheetId="4" r:id="rId3"/>
+    <sheet name="2 CPUs" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Promedio de T</t>
   </si>
@@ -55,6 +58,21 @@
   </si>
   <si>
     <t>Intervalos de 5</t>
+  </si>
+  <si>
+    <t>RAM=200</t>
+  </si>
+  <si>
+    <t>Velocidad 6</t>
+  </si>
+  <si>
+    <t>Procesos mas rapidos</t>
+  </si>
+  <si>
+    <t>Intervalos de 10</t>
+  </si>
+  <si>
+    <t>El doble de Velocidad</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-GT"/>
-              <a:t>Procesos vs Tiempo con 1 proceso a la vez</a:t>
+              <a:t>Procesos vs Tiempo intervalos de 10</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -596,7 +614,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-GT"/>
-              <a:t>Procesos vs Tiempo con 3 procesos a la vez</a:t>
+              <a:t>Procesos vs Tiempo intervalos de 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -694,19 +712,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.10759694711611</c:v>
+                  <c:v>0.86914207395013399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.100279135099999</c:v>
+                  <c:v>2.2163401077420799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.464271222802701</c:v>
+                  <c:v>15.1486922861813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.536885861309102</c:v>
+                  <c:v>28.664299267546198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.526118059078</c:v>
+                  <c:v>43.502624807762203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1066,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-GT"/>
-              <a:t>Procesos vs tiempo con 5 procesos a la vez</a:t>
+              <a:t>Procesos vs tiempo intervalos de 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1146,19 +1164,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.10759694711611</c:v>
+                  <c:v>0.33452978543322198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.100279135099999</c:v>
+                  <c:v>0.35285867229208701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.464271222802701</c:v>
+                  <c:v>0.52531535224436499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.536885861309102</c:v>
+                  <c:v>2.6215138658788399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.526118059078</c:v>
+                  <c:v>7.2691827786702197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,6 +1483,1369 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Procesos vs Tiempo con 200 de RAM</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1 CPU y 200 de RAM'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1 CPU y 200 de RAM'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.227179459960603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.88027913510001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309.77027122280202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>464.27688586130898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623.60511805907799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12CF-4EFA-9B67-7FEBEA54EAC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430473008"/>
+        <c:axId val="430475568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430473008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-GT" baseline="0"/>
+                  <a:t> de Procesos</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430475568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430475568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tiempo Promedio</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT" sz="500">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430473008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Procesos vs Tiempo con un procesador más rápido de 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1 CPU y 100 de RAM mas rapido'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1 CPU y 100 de RAM mas rapido'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4222287702307099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.350279135099999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.0936045561361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.846885861309097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.683451392412096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDA7-4F9F-8D20-3B354E684B24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265561400"/>
+        <c:axId val="265564600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="265561400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Numero de Procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265564600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="265564600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>tiempo Promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265561400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> CPUs</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2 CPUs'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2 CPUs'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.32460440070547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.018808448053999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.106224949451402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.829485309707103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.879402328447199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F480-405B-853C-9292E948CA46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265914320"/>
+        <c:axId val="265915280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="265914320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Numero de Procesos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265915280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="265915280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Tiempo Promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265914320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1585,6 +2966,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2618,6 +4119,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3238,6 +6287,129 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215899</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F609C4DD-F62D-43BA-84EB-24931B76BFA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>746125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D2C4CA-AAC0-4020-B40C-86974790527A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9D32D1-DF3D-4BD6-885A-CEBDAF8C4AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3545,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492E356A-C219-4376-8993-762436F63754}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3566,7 +6738,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3575,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -3584,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
@@ -3607,19 +6779,19 @@
         <v>25</v>
       </c>
       <c r="G4">
-        <v>3.10759694711611</v>
+        <v>0.86914207395013399</v>
       </c>
       <c r="H4">
-        <v>2.0182353514265499</v>
+        <v>0.58409560233451097</v>
       </c>
       <c r="J4">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>3.10759694711611</v>
+        <v>0.33452978543322198</v>
       </c>
       <c r="L4">
-        <v>2.0182353514265499</v>
+        <v>5.9822604994455696E-3</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -3636,19 +6808,19 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>15.100279135099999</v>
+        <v>2.2163401077420799</v>
       </c>
       <c r="H5">
-        <v>8.6598923652490196</v>
+        <v>1.3978122607875201</v>
       </c>
       <c r="J5">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>15.100279135099999</v>
+        <v>0.35285867229208701</v>
       </c>
       <c r="L5">
-        <v>8.6598923652490196</v>
+        <v>6.87691633347563E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -3665,19 +6837,19 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>46.464271222802701</v>
+        <v>15.1486922861813</v>
       </c>
       <c r="H6">
-        <v>23.000256056692901</v>
+        <v>6.6595866023114096</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>46.464271222802701</v>
+        <v>0.52531535224436499</v>
       </c>
       <c r="L6">
-        <v>23.000256056692901</v>
+        <v>0.26575036850943101</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -3694,19 +6866,19 @@
         <v>150</v>
       </c>
       <c r="G7">
-        <v>76.536885861309102</v>
+        <v>28.664299267546198</v>
       </c>
       <c r="H7">
-        <v>40.549923826823097</v>
+        <v>14.0741587091052</v>
       </c>
       <c r="J7">
         <v>150</v>
       </c>
       <c r="K7">
-        <v>76.536885861309102</v>
+        <v>2.6215138658788399</v>
       </c>
       <c r="L7">
-        <v>40.549923826823097</v>
+        <v>1.4315776751024101</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -3723,19 +6895,287 @@
         <v>200</v>
       </c>
       <c r="G8">
-        <v>108.526118059078</v>
+        <v>43.502624807762203</v>
       </c>
       <c r="H8">
-        <v>60.122280773505899</v>
+        <v>22.837468759038501</v>
       </c>
       <c r="J8">
         <v>200</v>
       </c>
       <c r="K8">
-        <v>108.526118059078</v>
+        <v>7.2691827786702197</v>
       </c>
       <c r="L8">
-        <v>60.122280773505899</v>
+        <v>3.5950261693083401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69606DD4-1503-49DE-9052-AEA6A3A8E2A9}">
+  <dimension ref="B1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>59.227179459960603</v>
+      </c>
+      <c r="D4">
+        <v>30.9814458531249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>134.88027913510001</v>
+      </c>
+      <c r="D5">
+        <v>70.0156871547713</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>309.77027122280202</v>
+      </c>
+      <c r="D6">
+        <v>141.83776484882401</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>464.27688586130898</v>
+      </c>
+      <c r="D7">
+        <v>234.57184705987001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>623.60511805907799</v>
+      </c>
+      <c r="D8">
+        <v>331.24830101757499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23589717-323C-4B91-8B92-5D2790E4EDD8}">
+  <dimension ref="C1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1.4222287702307099</v>
+      </c>
+      <c r="E4">
+        <v>0.93724362065060096</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>10.350279135099999</v>
+      </c>
+      <c r="E5">
+        <v>6.4987967544100904</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>37.0936045561361</v>
+      </c>
+      <c r="E6">
+        <v>17.7926297099064</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>61.846885861309097</v>
+      </c>
+      <c r="E7">
+        <v>32.326639115899603</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>88.683451392412096</v>
+      </c>
+      <c r="E8">
+        <v>48.611061017390703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9A19B-CA85-42A7-9A8E-D0D01506F72E}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2.32460440070547</v>
+      </c>
+      <c r="D3">
+        <v>1.74381470751485</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>11.018808448053999</v>
+      </c>
+      <c r="D4">
+        <v>7.1461229140922597</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>38.106224949451402</v>
+      </c>
+      <c r="D5">
+        <v>17.956180514838501</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>62.829485309707103</v>
+      </c>
+      <c r="D6">
+        <v>32.3395392167902</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>89.879402328447199</v>
+      </c>
+      <c r="D7">
+        <v>48.720750399763297</v>
       </c>
     </row>
   </sheetData>
